--- a/hecCalc/2023/documentum/Total BOQ_blank_1114-122156.xlsx
+++ b/hecCalc/2023/documentum/Total BOQ_blank_1114-122156.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MK\mQ\hecCalc\2023\documentum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\hecCalc\2023\documentum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A7B310-5CBF-49B4-BFD7-7F483AF5E3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0057DC2C-B440-4A45-900D-6480C9B37F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="1905" windowWidth="21060" windowHeight="9360" xr2:uid="{D46DD879-F62C-4FF3-8272-253F3C610267}"/>
+    <workbookView xWindow="34740" yWindow="2430" windowWidth="21600" windowHeight="11505" xr2:uid="{D46DD879-F62C-4FF3-8272-253F3C610267}"/>
   </bookViews>
   <sheets>
     <sheet name="(AR) BOQ" sheetId="1" r:id="rId1"/>
@@ -38533,13 +38533,15 @@
       </c>
       <c r="H9" s="13">
         <f>SUM(I9:K9)</f>
-        <v>5112.2929999999997</v>
+        <v>5528.9809999999998</v>
       </c>
       <c r="I9" s="13">
         <v>5112.2929999999997</v>
       </c>
       <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="13">
+        <v>416.68799999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -38561,13 +38563,15 @@
       </c>
       <c r="H10" s="13">
         <f t="shared" ref="H10:H71" si="0">SUM(I10:K10)</f>
-        <v>3829.0430000000001</v>
+        <v>4184.7860000000001</v>
       </c>
       <c r="I10" s="13">
         <v>3829.0430000000001</v>
       </c>
       <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="13">
+        <v>355.74299999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
@@ -38589,13 +38593,15 @@
       </c>
       <c r="H11" s="13">
         <f t="shared" si="0"/>
-        <v>1283.251</v>
+        <v>1344.1969999999999</v>
       </c>
       <c r="I11" s="13">
         <v>1283.251</v>
       </c>
       <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="K11" s="13">
+        <v>60.945999999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
@@ -39036,13 +39042,15 @@
       </c>
       <c r="H31" s="13">
         <f t="shared" si="0"/>
-        <v>83.063999999999993</v>
+        <v>105.69999999999999</v>
       </c>
       <c r="I31" s="13">
         <v>83.063999999999993</v>
       </c>
       <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="K31" s="13">
+        <v>22.635999999999999</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
@@ -39064,13 +39072,15 @@
       </c>
       <c r="H32" s="13">
         <f t="shared" si="0"/>
-        <v>812.27499999999998</v>
+        <v>858.89300000000003</v>
       </c>
       <c r="I32" s="13">
         <v>812.27499999999998</v>
       </c>
       <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="K32" s="13">
+        <v>46.618000000000002</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
@@ -39120,13 +39130,15 @@
       </c>
       <c r="H34" s="13">
         <f t="shared" si="0"/>
-        <v>1308.442</v>
+        <v>1472.6990000000001</v>
       </c>
       <c r="I34" s="13">
         <v>1308.442</v>
       </c>
       <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="K34" s="13">
+        <v>164.25700000000001</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
@@ -39148,13 +39160,15 @@
       </c>
       <c r="H35" s="13">
         <f t="shared" si="0"/>
-        <v>123.92100000000001</v>
+        <v>135.71899999999999</v>
       </c>
       <c r="I35" s="13">
         <v>123.92100000000001</v>
       </c>
       <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="K35" s="13">
+        <v>11.798</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
@@ -39550,13 +39564,15 @@
       </c>
       <c r="H55" s="13">
         <f t="shared" si="0"/>
-        <v>350.50400000000002</v>
+        <v>420.12600000000003</v>
       </c>
       <c r="I55" s="13">
         <v>350.50400000000002</v>
       </c>
       <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
+      <c r="K55" s="13">
+        <v>69.622</v>
+      </c>
     </row>
     <row r="56" spans="1:11" ht="48" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
@@ -39576,13 +39592,15 @@
       </c>
       <c r="H56" s="13">
         <f t="shared" si="0"/>
-        <v>152.26</v>
+        <v>581.76299999999992</v>
       </c>
       <c r="I56" s="13">
         <v>152.26</v>
       </c>
       <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
+      <c r="K56" s="13">
+        <v>429.50299999999999</v>
+      </c>
     </row>
     <row r="57" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
@@ -39604,13 +39622,15 @@
       </c>
       <c r="H57" s="13">
         <f t="shared" si="0"/>
-        <v>40.896000000000001</v>
+        <v>47.285000000000004</v>
       </c>
       <c r="I57" s="13">
         <v>40.896000000000001</v>
       </c>
       <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
+      <c r="K57" s="13">
+        <v>6.3890000000000002</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
@@ -39785,13 +39805,15 @@
       </c>
       <c r="H67" s="13">
         <f t="shared" si="0"/>
-        <v>2026.82</v>
+        <v>2154.1</v>
       </c>
       <c r="I67" s="13">
         <v>2026.82</v>
       </c>
       <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
+      <c r="K67" s="13">
+        <v>127.28</v>
+      </c>
     </row>
     <row r="68" spans="1:11" ht="48" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
@@ -39955,13 +39977,15 @@
       </c>
       <c r="H74" s="13">
         <f t="shared" ref="H74:H137" si="1">SUM(I74:K74)</f>
-        <v>284.745</v>
+        <v>344.34899999999999</v>
       </c>
       <c r="I74" s="13">
         <v>284.745</v>
       </c>
       <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
+      <c r="K74" s="13">
+        <v>59.603999999999999</v>
+      </c>
     </row>
     <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
@@ -39983,13 +40007,15 @@
       </c>
       <c r="H75" s="13">
         <f t="shared" si="1"/>
-        <v>284.745</v>
+        <v>454.58000000000004</v>
       </c>
       <c r="I75" s="13">
         <v>284.745</v>
       </c>
       <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
+      <c r="K75" s="13">
+        <v>169.83500000000001</v>
+      </c>
     </row>
     <row r="76" spans="1:11" ht="60" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
@@ -40063,11 +40089,13 @@
       </c>
       <c r="H78" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>59.603999999999999</v>
       </c>
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
+      <c r="K78" s="13">
+        <v>59.603999999999999</v>
+      </c>
     </row>
     <row r="79" spans="1:11" ht="48" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
@@ -40174,13 +40202,15 @@
       </c>
       <c r="H83" s="13">
         <f t="shared" si="1"/>
-        <v>311.20499999999998</v>
+        <v>393.75900000000001</v>
       </c>
       <c r="I83" s="13">
         <v>311.20499999999998</v>
       </c>
       <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
+      <c r="K83" s="13">
+        <v>82.554000000000002</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
@@ -40200,11 +40230,13 @@
       </c>
       <c r="H84" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40.831000000000003</v>
       </c>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
+      <c r="K84" s="13">
+        <v>40.831000000000003</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
@@ -40226,13 +40258,15 @@
       </c>
       <c r="H85" s="13">
         <f t="shared" si="1"/>
-        <v>284.745</v>
+        <v>554.69900000000007</v>
       </c>
       <c r="I85" s="13">
         <v>284.745</v>
       </c>
       <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
+      <c r="K85" s="13">
+        <v>269.95400000000001</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
@@ -40527,11 +40561,13 @@
       </c>
       <c r="H101" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.112</v>
       </c>
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
+      <c r="K101" s="13">
+        <v>10.112</v>
+      </c>
     </row>
     <row r="102" spans="1:11" ht="48" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
@@ -40867,11 +40903,13 @@
       </c>
       <c r="H119" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>93.227000000000004</v>
       </c>
       <c r="I119" s="13"/>
       <c r="J119" s="13"/>
-      <c r="K119" s="13"/>
+      <c r="K119" s="13">
+        <v>93.227000000000004</v>
+      </c>
     </row>
     <row r="120" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
@@ -40943,11 +40981,13 @@
       </c>
       <c r="H122" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>93.227000000000004</v>
       </c>
       <c r="I122" s="13"/>
       <c r="J122" s="13"/>
-      <c r="K122" s="13"/>
+      <c r="K122" s="13">
+        <v>93.227000000000004</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
@@ -40965,11 +41005,13 @@
       </c>
       <c r="H123" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.5940000000000003</v>
       </c>
       <c r="I123" s="13"/>
       <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
+      <c r="K123" s="13">
+        <v>5.5940000000000003</v>
+      </c>
     </row>
     <row r="124" spans="1:11" ht="36" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
@@ -41015,11 +41057,13 @@
       </c>
       <c r="H125" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>93.227000000000004</v>
       </c>
       <c r="I125" s="13"/>
       <c r="J125" s="13"/>
-      <c r="K125" s="13"/>
+      <c r="K125" s="13">
+        <v>93.227000000000004</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="10"/>
@@ -41180,11 +41224,13 @@
       </c>
       <c r="H134" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I134" s="13"/>
       <c r="J134" s="13"/>
-      <c r="K134" s="13"/>
+      <c r="K134" s="13">
+        <v>5</v>
+      </c>
     </row>
     <row r="135" spans="1:11" ht="36" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
@@ -41262,13 +41308,15 @@
       </c>
       <c r="H137" s="13">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I137" s="13">
         <v>28</v>
       </c>
       <c r="J137" s="13"/>
-      <c r="K137" s="13"/>
+      <c r="K137" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="138" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
@@ -41290,11 +41338,13 @@
       </c>
       <c r="H138" s="13">
         <f t="shared" ref="H138:H200" si="2">SUM(I138:K138)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" s="13"/>
       <c r="J138" s="13"/>
-      <c r="K138" s="13"/>
+      <c r="K138" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="139" spans="1:11" ht="36" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
@@ -41316,11 +41366,13 @@
       </c>
       <c r="H139" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" s="13"/>
       <c r="J139" s="13"/>
-      <c r="K139" s="13"/>
+      <c r="K139" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
@@ -41715,11 +41767,13 @@
       </c>
       <c r="H160" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>81.652000000000001</v>
       </c>
       <c r="I160" s="13"/>
       <c r="J160" s="13"/>
-      <c r="K160" s="13"/>
+      <c r="K160" s="13">
+        <v>81.652000000000001</v>
+      </c>
     </row>
     <row r="161" spans="1:11" ht="60" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
@@ -41741,11 +41795,13 @@
       </c>
       <c r="H161" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6349999999999998</v>
       </c>
       <c r="I161" s="13"/>
       <c r="J161" s="13"/>
-      <c r="K161" s="13"/>
+      <c r="K161" s="13">
+        <v>5.6349999999999998</v>
+      </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
@@ -41906,13 +41962,15 @@
       </c>
       <c r="H170" s="13">
         <f t="shared" si="2"/>
-        <v>284.745</v>
+        <v>344.34899999999999</v>
       </c>
       <c r="I170" s="13">
         <v>284.745</v>
       </c>
       <c r="J170" s="13"/>
-      <c r="K170" s="13"/>
+      <c r="K170" s="13">
+        <v>59.603999999999999</v>
+      </c>
     </row>
     <row r="171" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
@@ -41934,13 +41992,15 @@
       </c>
       <c r="H171" s="13">
         <f t="shared" si="2"/>
-        <v>284.745</v>
+        <v>554.69900000000007</v>
       </c>
       <c r="I171" s="13">
         <v>284.745</v>
       </c>
       <c r="J171" s="13"/>
-      <c r="K171" s="13"/>
+      <c r="K171" s="13">
+        <v>269.95400000000001</v>
+      </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
@@ -43166,13 +43226,15 @@
       </c>
       <c r="H233" s="13">
         <f t="shared" si="3"/>
-        <v>53.207999999999998</v>
+        <v>76.56</v>
       </c>
       <c r="I233" s="13">
         <v>53.207999999999998</v>
       </c>
       <c r="J233" s="13"/>
-      <c r="K233" s="13"/>
+      <c r="K233" s="13">
+        <v>23.352</v>
+      </c>
     </row>
     <row r="234" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="s">
@@ -43650,13 +43712,15 @@
       </c>
       <c r="H255" s="13">
         <f t="shared" si="3"/>
-        <v>53.207999999999998</v>
+        <v>76.56</v>
       </c>
       <c r="I255" s="13">
         <v>53.207999999999998</v>
       </c>
       <c r="J255" s="13"/>
-      <c r="K255" s="13"/>
+      <c r="K255" s="13">
+        <v>23.352</v>
+      </c>
     </row>
     <row r="256" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A256" s="10" t="s">
